--- a/week-1/Exercises/1-4-A-combining-data-sources-exercises.xlsx
+++ b/week-1/Exercises/1-4-A-combining-data-sources-exercises.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\data-analytics-lectures\week-1\Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\data-analytics-lectures\week-1\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2409F9-B926-430E-9284-91EF61D0653D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="starbucks" sheetId="6" r:id="rId2"/>
     <sheet name="sales-reps" sheetId="5" r:id="rId3"/>
-    <sheet name="hlookup" sheetId="4" r:id="rId4"/>
+    <sheet name="sales" sheetId="7" r:id="rId4"/>
+    <sheet name="hlookup" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>source: https://qlikxl.files.wordpress.com/2018/09/hlookup-worked-example.xlsx</t>
   </si>
@@ -164,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -494,9 +496,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -773,19 +775,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -795,28 +797,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="slide=id.g5d1ca39295_0_74  "/>
+    <hyperlink ref="B1" r:id="rId1" location="slide=id.g5d1ca39295_0_74  " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="10" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="4" max="4" width="9.109375" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>39</v>
       </c>
@@ -830,7 +832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
@@ -844,7 +846,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
@@ -858,7 +860,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
@@ -872,7 +874,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>26</v>
       </c>
@@ -886,7 +888,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>32</v>
       </c>
@@ -900,7 +902,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>31</v>
       </c>
@@ -914,7 +916,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>30</v>
       </c>
@@ -928,7 +930,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>29</v>
       </c>
@@ -942,7 +944,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
@@ -956,8 +958,8 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
@@ -965,14 +967,14 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
     </row>
-    <row r="13" spans="1:4" s="21" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="21" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="19"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
@@ -980,7 +982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
@@ -990,7 +992,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -998,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1006,12 +1008,12 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1116,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1140,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1272,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1294,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1358,7 +1360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1448,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +1492,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1512,7 +1514,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1534,7 +1536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1551,28 +1553,760 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89AA8AF-5FEF-46DC-928F-B4E7FA32B327}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14">
+        <v>43710</v>
+      </c>
+      <c r="C2">
+        <v>151</v>
+      </c>
+      <c r="D2" t="e">
+        <f>VLOOKUP(A2,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G2">
+        <v>52099</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C3">
+        <v>140</v>
+      </c>
+      <c r="D3" t="e">
+        <f>VLOOKUP(A3,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3">
+        <v>68495</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C4">
+        <v>189</v>
+      </c>
+      <c r="D4" t="e">
+        <f>VLOOKUP(A4,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G4">
+        <v>95405</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14">
+        <v>43710</v>
+      </c>
+      <c r="C5">
+        <v>121</v>
+      </c>
+      <c r="D5" t="e">
+        <f>VLOOKUP(A5,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5">
+        <v>49759</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14">
+        <v>43715</v>
+      </c>
+      <c r="C6">
+        <v>192</v>
+      </c>
+      <c r="D6" t="e">
+        <f>VLOOKUP(A6,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6">
+        <v>82019</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7" t="e">
+        <f>VLOOKUP(A7,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C8">
+        <v>165</v>
+      </c>
+      <c r="D8" t="e">
+        <f>VLOOKUP(A8,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C9">
+        <v>125</v>
+      </c>
+      <c r="D9" t="e">
+        <f>VLOOKUP(A9,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14">
+        <v>43710</v>
+      </c>
+      <c r="C10">
+        <v>126</v>
+      </c>
+      <c r="D10" t="e">
+        <f>VLOOKUP(A10,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C11">
+        <v>134</v>
+      </c>
+      <c r="D11" t="e">
+        <f>VLOOKUP(A11,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43713</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12" t="e">
+        <f>VLOOKUP(A12,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C13">
+        <v>121</v>
+      </c>
+      <c r="D13" t="e">
+        <f>VLOOKUP(A13,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <v>43711</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+      <c r="D14" t="e">
+        <f>VLOOKUP(A14,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14">
+        <v>43711</v>
+      </c>
+      <c r="C15">
+        <v>136</v>
+      </c>
+      <c r="D15" t="e">
+        <f>VLOOKUP(A15,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C16">
+        <v>92</v>
+      </c>
+      <c r="D16" t="e">
+        <f>VLOOKUP(A16,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C17">
+        <v>57</v>
+      </c>
+      <c r="D17" t="e">
+        <f>VLOOKUP(A17,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C18">
+        <v>160</v>
+      </c>
+      <c r="D18" t="e">
+        <f>VLOOKUP(A18,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="14">
+        <v>43713</v>
+      </c>
+      <c r="C19">
+        <v>158</v>
+      </c>
+      <c r="D19" t="e">
+        <f>VLOOKUP(A19,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C20">
+        <v>162</v>
+      </c>
+      <c r="D20" t="e">
+        <f>VLOOKUP(A20,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C21">
+        <v>114</v>
+      </c>
+      <c r="D21" t="e">
+        <f>VLOOKUP(A21,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C22">
+        <v>128</v>
+      </c>
+      <c r="D22" t="e">
+        <f>VLOOKUP(A22,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C23">
+        <v>193</v>
+      </c>
+      <c r="D23" t="e">
+        <f>VLOOKUP(A23,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C24">
+        <v>97</v>
+      </c>
+      <c r="D24" t="e">
+        <f>VLOOKUP(A24,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C25">
+        <v>144</v>
+      </c>
+      <c r="D25" t="e">
+        <f>VLOOKUP(A25,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C26">
+        <v>58</v>
+      </c>
+      <c r="D26" t="e">
+        <f>VLOOKUP(A26,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="14">
+        <v>43710</v>
+      </c>
+      <c r="C27">
+        <v>171</v>
+      </c>
+      <c r="D27" t="e">
+        <f>VLOOKUP(A27,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="14">
+        <v>43710</v>
+      </c>
+      <c r="C28">
+        <v>109</v>
+      </c>
+      <c r="D28" t="e">
+        <f>VLOOKUP(A28,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C29">
+        <v>61</v>
+      </c>
+      <c r="D29" t="e">
+        <f>VLOOKUP(A29,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C30">
+        <v>131</v>
+      </c>
+      <c r="D30" t="e">
+        <f>VLOOKUP(A30,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C31">
+        <v>86</v>
+      </c>
+      <c r="D31" t="e">
+        <f>VLOOKUP(A31,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C32">
+        <v>89</v>
+      </c>
+      <c r="D32" t="e">
+        <f>VLOOKUP(A32,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C33">
+        <v>159</v>
+      </c>
+      <c r="D33" t="e">
+        <f>VLOOKUP(A33,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="14">
+        <v>43710</v>
+      </c>
+      <c r="C34">
+        <v>93</v>
+      </c>
+      <c r="D34" t="e">
+        <f>VLOOKUP(A34,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C35">
+        <v>157</v>
+      </c>
+      <c r="D35" t="e">
+        <f>VLOOKUP(A35,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="14">
+        <v>43710</v>
+      </c>
+      <c r="C36">
+        <v>107</v>
+      </c>
+      <c r="D36" t="e">
+        <f>VLOOKUP(A36,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C37">
+        <v>158</v>
+      </c>
+      <c r="D37" t="e">
+        <f>VLOOKUP(A37,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="14">
+        <v>43711</v>
+      </c>
+      <c r="C38">
+        <v>103</v>
+      </c>
+      <c r="D38" t="e">
+        <f>VLOOKUP(A38,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39" t="e">
+        <f>VLOOKUP(A39,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="14">
+        <v>43714</v>
+      </c>
+      <c r="C40">
+        <v>182</v>
+      </c>
+      <c r="D40" t="e">
+        <f>VLOOKUP(A40,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="14">
+        <v>43709</v>
+      </c>
+      <c r="C41">
+        <v>132</v>
+      </c>
+      <c r="D41" t="e">
+        <f>VLOOKUP(A41,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="14">
+        <v>43710</v>
+      </c>
+      <c r="C42">
+        <v>160</v>
+      </c>
+      <c r="D42" t="e">
+        <f>VLOOKUP(A42,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="14">
+        <v>43715</v>
+      </c>
+      <c r="C43">
+        <v>82</v>
+      </c>
+      <c r="D43" t="e">
+        <f>VLOOKUP(A43,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C44">
+        <v>77</v>
+      </c>
+      <c r="D44" t="e">
+        <f>VLOOKUP(A44,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="14">
+        <v>43712</v>
+      </c>
+      <c r="C45">
+        <v>71</v>
+      </c>
+      <c r="D45" t="e">
+        <f>VLOOKUP(A45,$G$2:$H$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
     <col min="12" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
@@ -1580,10 +2314,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1600,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" s="9"/>
       <c r="F4" s="6">
         <v>43101</v>
@@ -1615,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1633,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +2385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +2403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
@@ -1690,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F9" s="6">
         <v>43106</v>
       </c>
@@ -1704,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F10" s="6">
         <v>43107</v>
       </c>
@@ -1718,28 +2452,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="D20" s="3"/>
@@ -1754,7 +2488,7 @@
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="D21" s="3"/>
@@ -1769,17 +2503,17 @@
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +2523,7 @@
     <mergeCell ref="F20:O21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1"/>
+    <hyperlink ref="A31" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
